--- a/chapter03_Pandas/SHIndex_2020.xlsx
+++ b/chapter03_Pandas/SHIndex_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\基于Python的金融分析与风险管理\第二版\数据\第3章\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipeng.meng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDAA66A-71C0-479D-9F8E-53D4A7DB7EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB93386-6F93-455E-9A76-D015EEB80BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,26 +259,6 @@
     <t>2020-04-30</t>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开盘价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收盘价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2020-05-06</t>
   </si>
   <si>
@@ -769,6 +749,21 @@
   </si>
   <si>
     <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -776,15 +771,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="g/&quot;通&quot;&quot;用&quot;&quot;格&quot;&quot;式&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="g/&quot;通&quot;&quot;用&quot;&quot;格&quot;&quot;式&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -796,7 +791,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -824,13 +819,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -838,7 +833,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,7 +849,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1176,34 +1171,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="5" width="12.77734375" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1215,7 @@
         <v>3085.1976</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1232,7 @@
         <v>3083.7858000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1249,7 @@
         <v>3083.4083000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1271,7 +1266,7 @@
         <v>3104.8015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1283,7 @@
         <v>3066.8924999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>3094.8818999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1317,7 @@
         <v>3092.2907</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1334,7 @@
         <v>3115.5695999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>3106.8204000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1368,7 @@
         <v>3090.0378999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1385,7 @@
         <v>3074.0814</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>3075.4955</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +1419,7 @@
         <v>3095.7873</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1436,7 @@
         <v>3052.1419000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1458,7 +1453,7 @@
         <v>3060.7545</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1470,7 @@
         <v>2976.5281</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1492,7 +1487,7 @@
         <v>2746.6055999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1509,7 +1504,7 @@
         <v>2783.2874999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1526,7 +1521,7 @@
         <v>2818.0877999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,7 +1538,7 @@
         <v>2866.5097000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1560,7 +1555,7 @@
         <v>2875.9636</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>2890.4877999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1594,7 +1589,7 @@
         <v>2901.6743999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1606,7 @@
         <v>2926.8991000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>2906.0735</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1640,7 @@
         <v>2917.0077000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1662,7 +1657,7 @@
         <v>2983.6224000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1679,7 +1674,7 @@
         <v>2984.9715999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>2975.4018999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1708,7 @@
         <v>3030.1541999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1725,7 @@
         <v>3039.6691999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1747,7 +1742,7 @@
         <v>3031.2332999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1759,7 @@
         <v>3013.0500999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1781,7 +1776,7 @@
         <v>2987.9286999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1793,7 @@
         <v>2991.3287999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1815,7 +1810,7 @@
         <v>2880.3038000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +1827,7 @@
         <v>2970.9312</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,7 +1844,7 @@
         <v>2992.8968</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1861,7 @@
         <v>3011.6657</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1883,7 +1878,7 @@
         <v>3071.6770999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1900,7 +1895,7 @@
         <v>3034.5113000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1917,7 +1912,7 @@
         <v>2943.2907</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1934,7 +1929,7 @@
         <v>2996.7618000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1951,7 +1946,7 @@
         <v>2968.5174000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,7 +1963,7 @@
         <v>2923.4856</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1985,7 +1980,7 @@
         <v>2887.4265</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2002,7 +1997,7 @@
         <v>2789.2537000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2019,7 +2014,7 @@
         <v>2779.6406999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2036,7 +2031,7 @@
         <v>2728.7563</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2053,7 +2048,7 @@
         <v>2702.1296000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2070,7 +2065,7 @@
         <v>2745.6181999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2087,7 +2082,7 @@
         <v>2660.1673999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2104,7 +2099,7 @@
         <v>2722.4380999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2121,7 +2116,7 @@
         <v>2781.5913</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2138,7 +2133,7 @@
         <v>2764.9108999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2155,7 +2150,7 @@
         <v>2772.2033000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2172,7 +2167,7 @@
         <v>2747.2138</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2189,7 +2184,7 @@
         <v>2750.2962000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2201,7 @@
         <v>2734.5214999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2223,7 +2218,7 @@
         <v>2780.6379000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2240,7 +2235,7 @@
         <v>2763.9874</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2257,7 +2252,7 @@
         <v>2820.7633999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2274,7 +2269,7 @@
         <v>2815.3685999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2291,7 +2286,7 @@
         <v>2825.9036000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2308,7 +2303,7 @@
         <v>2796.6311999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2320,7 @@
         <v>2783.0475999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2342,7 +2337,7 @@
         <v>2827.2829999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2359,7 +2354,7 @@
         <v>2811.1741000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2376,7 +2371,7 @@
         <v>2819.9349999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2393,7 +2388,7 @@
         <v>2838.4944999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -2410,7 +2405,7 @@
         <v>2852.5527999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2427,7 +2422,7 @@
         <v>2827.0133000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2444,7 +2439,7 @@
         <v>2843.9803999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2461,7 +2456,7 @@
         <v>2838.4994000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2478,7 +2473,7 @@
         <v>2808.5293000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2495,7 +2490,7 @@
         <v>2815.4947000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2512,7 +2507,7 @@
         <v>2810.0243</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2529,7 +2524,7 @@
         <v>2822.4423999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2546,9 +2541,9 @@
         <v>2860.0821999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>2831.6325999999999</v>
@@ -2563,9 +2558,9 @@
         <v>2878.1401999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3">
         <v>2876.4726999999998</v>
@@ -2580,9 +2575,9 @@
         <v>2871.5232000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3">
         <v>2882.7078000000001</v>
@@ -2597,9 +2592,9 @@
         <v>2895.3444</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3">
         <v>2901.5738999999999</v>
@@ -2614,9 +2609,9 @@
         <v>2894.8020000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3">
         <v>2894.6170999999999</v>
@@ -2631,9 +2626,9 @@
         <v>2891.5563999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
         <v>2882.9551999999999</v>
@@ -2648,9 +2643,9 @@
         <v>2898.0495000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
         <v>2887.0576999999998</v>
@@ -2665,9 +2660,9 @@
         <v>2870.3422</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>2880.7067000000002</v>
@@ -2682,9 +2677,9 @@
         <v>2868.4587000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3">
         <v>2872.5243999999998</v>
@@ -2699,9 +2694,9 @@
         <v>2875.4176000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3">
         <v>2897.6867000000002</v>
@@ -2716,9 +2711,9 @@
         <v>2898.576</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3">
         <v>2896.4657000000002</v>
@@ -2733,9 +2728,9 @@
         <v>2883.7377999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3">
         <v>2890.7213000000002</v>
@@ -2750,9 +2745,9 @@
         <v>2867.9236999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3">
         <v>2863.0462000000002</v>
@@ -2767,9 +2762,9 @@
         <v>2813.7654000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3">
         <v>2816.241</v>
@@ -2784,9 +2779,9 @@
         <v>2817.9697000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3">
         <v>2827.8966999999998</v>
@@ -2801,9 +2796,9 @@
         <v>2846.5473000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3">
         <v>2847.3198000000002</v>
@@ -2818,9 +2813,9 @@
         <v>2836.8036000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3">
         <v>2838.2071999999998</v>
@@ -2835,9 +2830,9 @@
         <v>2846.2217000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3">
         <v>2835.5839999999998</v>
@@ -2852,9 +2847,9 @@
         <v>2852.3512000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>2871.9641000000001</v>
@@ -2869,9 +2864,9 @@
         <v>2915.4310999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>2916.3168000000001</v>
@@ -2886,9 +2881,9 @@
         <v>2921.3980000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
         <v>2930.3906000000002</v>
@@ -2903,9 +2898,9 @@
         <v>2923.3710999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
         <v>2931.8375999999998</v>
@@ -2920,9 +2915,9 @@
         <v>2919.2505999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <v>2923.1891000000001</v>
@@ -2937,9 +2932,9 @@
         <v>2930.7993000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <v>2941.9816000000001</v>
@@ -2954,9 +2949,9 @@
         <v>2937.7712000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
         <v>2939.5351000000001</v>
@@ -2971,9 +2966,9 @@
         <v>2956.1116000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3">
         <v>2951.2784000000001</v>
@@ -2988,9 +2983,9 @@
         <v>2943.7525000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>2939.7914000000001</v>
@@ -3005,9 +3000,9 @@
         <v>2920.8968</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3">
         <v>2876.8029000000001</v>
@@ -3022,9 +3017,9 @@
         <v>2919.7408</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>2908.2766999999999</v>
@@ -3039,9 +3034,9 @@
         <v>2890.0306</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3">
         <v>2912.8251</v>
@@ -3056,9 +3051,9 @@
         <v>2931.7492999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3">
         <v>2932.6707999999999</v>
@@ -3073,9 +3068,9 @@
         <v>2935.873</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>2929.8798999999999</v>
@@ -3090,9 +3085,9 @@
         <v>2939.3150999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3">
         <v>2938.7887000000001</v>
@@ -3107,9 +3102,9 @@
         <v>2967.6341000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3">
         <v>2966.9007999999999</v>
@@ -3124,9 +3119,9 @@
         <v>2965.2716999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3">
         <v>2960.8874999999998</v>
@@ -3141,9 +3136,9 @@
         <v>2970.6203</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3">
         <v>2972.9827</v>
@@ -3158,9 +3153,9 @@
         <v>2979.5504999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3">
         <v>2973.0756999999999</v>
@@ -3175,9 +3170,9 @@
         <v>2961.5164</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
         <v>2965.1053999999999</v>
@@ -3192,9 +3187,9 @@
         <v>2984.6741000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>2991.1813000000002</v>
@@ -3209,9 +3204,9 @@
         <v>3025.9810000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
         <v>3023.7188999999998</v>
@@ -3226,9 +3221,9 @@
         <v>3090.5693000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3">
         <v>3103.9951999999998</v>
@@ -3243,9 +3238,9 @@
         <v>3152.8126000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>3187.8393000000001</v>
@@ -3260,9 +3255,9 @@
         <v>3332.8807000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3">
         <v>3380.9535999999998</v>
@@ -3277,9 +3272,9 @@
         <v>3345.3368999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3">
         <v>3337.5518000000002</v>
@@ -3294,9 +3289,9 @@
         <v>3403.4400999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>3403.4832000000001</v>
@@ -3311,9 +3306,9 @@
         <v>3450.5934999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3">
         <v>3418.9346999999998</v>
@@ -3328,9 +3323,9 @@
         <v>3383.3222000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>3379.3867</v>
@@ -3345,9 +3340,9 @@
         <v>3443.2863000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3">
         <v>3435.0237000000002</v>
@@ -3362,9 +3357,9 @@
         <v>3414.6185999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>3422.0778</v>
@@ -3379,9 +3374,9 @@
         <v>3361.3044</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>3356.3589999999999</v>
@@ -3396,9 +3391,9 @@
         <v>3210.0985999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3">
         <v>3214.4022</v>
@@ -3413,9 +3408,9 @@
         <v>3214.1287000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>3243.9105</v>
@@ -3430,9 +3425,9 @@
         <v>3314.1489999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>3330.5466999999999</v>
@@ -3447,9 +3442,9 @@
         <v>3320.8946999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3">
         <v>3315.1815999999999</v>
@@ -3464,9 +3459,9 @@
         <v>3333.1635000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3">
         <v>3306.1489000000001</v>
@@ -3481,9 +3476,9 @@
         <v>3325.1102000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3">
         <v>3310.6448999999998</v>
@@ -3498,9 +3493,9 @@
         <v>3196.7683999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3">
         <v>3210.3863000000001</v>
@@ -3515,9 +3510,9 @@
         <v>3205.2267999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3">
         <v>3226.1329000000001</v>
@@ -3532,9 +3527,9 @@
         <v>3227.9603999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3">
         <v>3221.9883</v>
@@ -3549,9 +3544,9 @@
         <v>3294.5520999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3">
         <v>3299.5718000000002</v>
@@ -3566,9 +3561,9 @@
         <v>3286.8220000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3">
         <v>3280.7959000000001</v>
@@ -3583,9 +3578,9 @@
         <v>3310.0065</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3">
         <v>3332.1826000000001</v>
@@ -3600,9 +3595,9 @@
         <v>3367.9657999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3">
         <v>3376.4402</v>
@@ -3617,9 +3612,9 @@
         <v>3371.6875</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>3363.3323999999998</v>
@@ -3634,9 +3629,9 @@
         <v>3377.5648000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3">
         <v>3380.7620999999999</v>
@@ -3651,9 +3646,9 @@
         <v>3386.4630999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3">
         <v>3370.5877999999998</v>
@@ -3668,9 +3663,9 @@
         <v>3354.0351999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3">
         <v>3341.5275999999999</v>
@@ -3685,9 +3680,9 @@
         <v>3379.2523999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3">
         <v>3379.4874</v>
@@ -3702,9 +3697,9 @@
         <v>3340.29</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3">
         <v>3327.4929000000002</v>
@@ -3719,9 +3714,9 @@
         <v>3319.2656000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>3328.1754000000001</v>
@@ -3736,9 +3731,9 @@
         <v>3320.7260999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3">
         <v>3315.6687000000002</v>
@@ -3753,9 +3748,9 @@
         <v>3360.0988000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3">
         <v>3373.9018000000001</v>
@@ -3770,9 +3765,9 @@
         <v>3438.8009999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3">
         <v>3441.9337</v>
@@ -3787,9 +3782,9 @@
         <v>3451.0893999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3">
         <v>3444.5646000000002</v>
@@ -3804,9 +3799,9 @@
         <v>3408.1288</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3">
         <v>3385.9645</v>
@@ -3821,9 +3816,9 @@
         <v>3363.8987999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3">
         <v>3380.2269000000001</v>
@@ -3838,9 +3833,9 @@
         <v>3380.6824999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3">
         <v>3391.1131999999998</v>
@@ -3855,9 +3850,9 @@
         <v>3385.6383000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3">
         <v>3392.8797</v>
@@ -3872,9 +3867,9 @@
         <v>3373.5781000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3">
         <v>3371.8083000000001</v>
@@ -3889,9 +3884,9 @@
         <v>3329.7388000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3">
         <v>3333.4908999999998</v>
@@ -3906,9 +3901,9 @@
         <v>3350.1127999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3">
         <v>3346.2892999999999</v>
@@ -3923,9 +3918,9 @@
         <v>3403.8065999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3">
         <v>3416.5497</v>
@@ -3940,9 +3935,9 @@
         <v>3395.6774999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B163" s="3">
         <v>3389.7424000000001</v>
@@ -3957,9 +3952,9 @@
         <v>3410.6068</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3">
         <v>3420.4693000000002</v>
@@ -3974,9 +3969,9 @@
         <v>3404.8017</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3">
         <v>3404.0319</v>
@@ -3991,9 +3986,9 @@
         <v>3384.9805999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3">
         <v>3336.4076</v>
@@ -4008,9 +4003,9 @@
         <v>3355.3665999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3">
         <v>3349.9184</v>
@@ -4025,9 +4020,9 @@
         <v>3292.5907000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3">
         <v>3301.2172999999998</v>
@@ -4042,9 +4037,9 @@
         <v>3316.4169999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B169" s="3">
         <v>3280.9974000000002</v>
@@ -4059,9 +4054,9 @@
         <v>3254.6279</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3">
         <v>3282.232</v>
@@ -4076,9 +4071,9 @@
         <v>3234.8234000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3">
         <v>3225.7836000000002</v>
@@ -4093,9 +4088,9 @@
         <v>3260.3461000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3">
         <v>3275.9180999999999</v>
@@ -4110,9 +4105,9 @@
         <v>3278.8137999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3">
         <v>3277.1284000000001</v>
@@ -4127,9 +4122,9 @@
         <v>3295.6795000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3">
         <v>3293.1678000000002</v>
@@ -4144,9 +4139,9 @@
         <v>3283.9243999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3">
         <v>3277.3238000000001</v>
@@ -4161,9 +4156,9 @@
         <v>3270.4349999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B176" s="3">
         <v>3270.9110000000001</v>
@@ -4178,9 +4173,9 @@
         <v>3338.0897</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3">
         <v>3348.8987999999999</v>
@@ -4195,9 +4190,9 @@
         <v>3316.9351000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3">
         <v>3290.6655999999998</v>
@@ -4212,9 +4207,9 @@
         <v>3274.3015</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3">
         <v>3278.8357999999998</v>
@@ -4229,9 +4224,9 @@
         <v>3279.7105000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3">
         <v>3262.8789999999999</v>
@@ -4246,9 +4241,9 @@
         <v>3223.1763999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3">
         <v>3234.3739</v>
@@ -4263,9 +4258,9 @@
         <v>3219.4178999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3">
         <v>3224.9769000000001</v>
@@ -4280,9 +4275,9 @@
         <v>3217.5346</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3">
         <v>3231.8551000000002</v>
@@ -4297,9 +4292,9 @@
         <v>3224.3593000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3">
         <v>3232.7103999999999</v>
@@ -4314,9 +4309,9 @@
         <v>3218.0520999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3">
         <v>3262.6104999999998</v>
@@ -4331,9 +4326,9 @@
         <v>3272.0762</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3">
         <v>3287.3281000000002</v>
@@ -4348,9 +4343,9 @@
         <v>3358.4652000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3">
         <v>3353.1212999999998</v>
@@ -4365,9 +4360,9 @@
         <v>3359.7498999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3">
         <v>3353.6246999999998</v>
@@ -4382,9 +4377,9 @@
         <v>3340.7782000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B189" s="3">
         <v>3342.9222</v>
@@ -4399,9 +4394,9 @@
         <v>3332.1831999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3">
         <v>3334.4567999999999</v>
@@ -4416,9 +4411,9 @@
         <v>3336.3582000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3">
         <v>3351.0961000000002</v>
@@ -4433,9 +4428,9 @@
         <v>3312.6671000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3">
         <v>3307.1498000000001</v>
@@ -4450,9 +4445,9 @@
         <v>3328.1028999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3">
         <v>3332.1469999999999</v>
@@ -4467,9 +4462,9 @@
         <v>3325.0246999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3">
         <v>3315.8206</v>
@@ -4484,9 +4479,9 @@
         <v>3312.5005000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3">
         <v>3308.1581000000001</v>
@@ -4501,9 +4496,9 @@
         <v>3277.9971999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B196" s="3">
         <v>3258.7028</v>
@@ -4518,9 +4513,9 @@
         <v>3251.1188000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3">
         <v>3240.7395000000001</v>
@@ -4535,9 +4530,9 @@
         <v>3254.3157000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3">
         <v>3256.2224999999999</v>
@@ -4552,9 +4547,9 @@
         <v>3269.2379999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3">
         <v>3235.7647000000002</v>
@@ -4569,9 +4564,9 @@
         <v>3272.7274000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3">
         <v>3278.6311999999998</v>
@@ -4586,9 +4581,9 @@
         <v>3224.5324999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3">
         <v>3228.7150000000001</v>
@@ -4603,9 +4598,9 @@
         <v>3225.1196</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3">
         <v>3239.8063000000002</v>
@@ -4620,9 +4615,9 @@
         <v>3271.0744</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3">
         <v>3273.4326000000001</v>
@@ -4637,9 +4632,9 @@
         <v>3277.4402</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3">
         <v>3305.5798</v>
@@ -4654,9 +4649,9 @@
         <v>3320.1333</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3">
         <v>3326.4645</v>
@@ -4671,9 +4666,9 @@
         <v>3312.1590000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3">
         <v>3329.4285</v>
@@ -4688,9 +4683,9 @@
         <v>3373.7337000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3">
         <v>3387.6219000000001</v>
@@ -4705,9 +4700,9 @@
         <v>3360.1484999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3">
         <v>3354.0246999999999</v>
@@ -4722,9 +4717,9 @@
         <v>3342.2024999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3">
         <v>3344.4562000000001</v>
@@ -4739,9 +4734,9 @@
         <v>3338.6788000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3">
         <v>3327.2293</v>
@@ -4756,9 +4751,9 @@
         <v>3310.1046000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3">
         <v>3325.6208999999999</v>
@@ -4773,9 +4768,9 @@
         <v>3346.9692</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3">
         <v>3347.1513</v>
@@ -4790,9 +4785,9 @@
         <v>3339.895</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3">
         <v>3337.3314999999998</v>
@@ -4807,9 +4802,9 @@
         <v>3347.3033999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3">
         <v>3339.0864000000001</v>
@@ -4824,9 +4819,9 @@
         <v>3363.0875999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3">
         <v>3359.5965999999999</v>
@@ -4841,9 +4836,9 @@
         <v>3377.7267000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3">
         <v>3384.1039000000001</v>
@@ -4858,9 +4853,9 @@
         <v>3414.4899</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3">
         <v>3407.4087</v>
@@ -4875,9 +4870,9 @@
         <v>3402.8225000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3">
         <v>3417.5149999999999</v>
@@ -4892,9 +4887,9 @@
         <v>3362.3274000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3">
         <v>3360.0608999999999</v>
@@ -4909,9 +4904,9 @@
         <v>3369.7334000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3">
         <v>3373.8434000000002</v>
@@ -4926,9 +4921,9 @@
         <v>3408.3071</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3">
         <v>3418.1583000000001</v>
@@ -4943,9 +4938,9 @@
         <v>3391.7550999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3">
         <v>3388.9866999999999</v>
@@ -4960,9 +4955,9 @@
         <v>3451.9384</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3">
         <v>3453.5180999999998</v>
@@ -4977,9 +4972,9 @@
         <v>3449.3805000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3">
         <v>3448.5403000000001</v>
@@ -4994,9 +4989,9 @@
         <v>3442.1359000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3">
         <v>3436.7291</v>
@@ -5011,9 +5006,9 @@
         <v>3444.5814</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3">
         <v>3446.6478000000002</v>
@@ -5028,9 +5023,9 @@
         <v>3416.6037000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3">
         <v>3417.6936000000001</v>
@@ -5045,9 +5040,9 @@
         <v>3410.1770999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3">
         <v>3416.0781999999999</v>
@@ -5062,9 +5057,9 @@
         <v>3371.9639999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3">
         <v>3365.7310000000002</v>
@@ -5079,9 +5074,9 @@
         <v>3373.2757999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3">
         <v>3381.0079999999998</v>
@@ -5096,9 +5091,9 @@
         <v>3347.1909999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3">
         <v>3349.5340000000001</v>
@@ -5113,9 +5108,9 @@
         <v>3369.1201000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3">
         <v>3366.5812999999998</v>
@@ -5130,9 +5125,9 @@
         <v>3367.2325999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3">
         <v>3371.2631999999999</v>
@@ -5147,9 +5142,9 @@
         <v>3366.9832000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3">
         <v>3367.277</v>
@@ -5164,9 +5159,9 @@
         <v>3404.8732</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3">
         <v>3400.4854999999998</v>
@@ -5181,9 +5176,9 @@
         <v>3394.8960000000002</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3">
         <v>3394.3944999999999</v>
@@ -5198,9 +5193,9 @@
         <v>3420.5693000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3">
         <v>3410.9677999999999</v>
@@ -5215,9 +5210,9 @@
         <v>3356.7822000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B238" s="3">
         <v>3362.4721</v>
@@ -5232,9 +5227,9 @@
         <v>3382.3195000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B239" s="3">
         <v>3382.1930000000002</v>
@@ -5249,9 +5244,9 @@
         <v>3363.1133</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B240" s="3">
         <v>3351.7901000000002</v>
@@ -5266,9 +5261,9 @@
         <v>3396.5626000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B241" s="3">
         <v>3396.3589999999999</v>
@@ -5283,9 +5278,9 @@
         <v>3397.2854000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3">
         <v>3399.2939000000001</v>
@@ -5300,9 +5295,9 @@
         <v>3379.0362</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3">
         <v>3375.0086000000001</v>
@@ -5317,9 +5312,9 @@
         <v>3414.4526999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B244" s="3">
         <v>3419.7267000000002</v>
